--- a/rhizoid counting combined.xlsx
+++ b/rhizoid counting combined.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="525" windowWidth="17895" windowHeight="5835"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="23">
   <si>
     <t>line</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>SpKD1 pHART A</t>
+  </si>
+  <si>
+    <t>MpSg9:pHART C</t>
+  </si>
+  <si>
+    <t>SpKD1:pHART I</t>
+  </si>
+  <si>
+    <t>MpSg9:pHART B</t>
   </si>
 </sst>
 </file>
@@ -161,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -191,6 +200,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2368,6 +2379,412 @@
         <v>7</v>
       </c>
     </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="18">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>22</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="18">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>25</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="18">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>21</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="18">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>23</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="18">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>18</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="18">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>18</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="18">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>17</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="18">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>28</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="18">
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <v>32</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="18">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>18</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="18">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>17</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="18">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>15</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="18">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>16</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="18">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>17</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="18">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>11</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="18">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>18</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="18">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>15</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="18">
+        <v>4</v>
+      </c>
+      <c r="D138">
+        <v>14</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="18">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>11</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="18">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>21</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="18">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>25</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="18">
+        <v>4</v>
+      </c>
+      <c r="D142">
+        <v>30</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="18">
+        <v>4</v>
+      </c>
+      <c r="D143">
+        <v>16</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="18">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>23</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="18">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>20</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="18">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>19</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="18">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>18</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="18">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>25</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="18">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>23</v>
+      </c>
+      <c r="E149" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D56"/>
   <sortState ref="A2:E125">
